--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Andishkade\Rasad Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C352D7-6DD2-4EEA-ADF2-8BA345D4DA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53113DB6-120A-41B2-B51C-4CE781AA68BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>subject</t>
   </si>
@@ -45,15 +45,6 @@
     <t>حمل و نقل و زیرساخت</t>
   </si>
   <si>
-    <t>چین</t>
-  </si>
-  <si>
-    <t>ترکیه</t>
-  </si>
-  <si>
-    <t>امارات</t>
-  </si>
-  <si>
     <t>نهضت</t>
   </si>
   <si>
@@ -127,6 +118,12 @@
   </si>
   <si>
     <t>مشاوران املاک</t>
+  </si>
+  <si>
+    <t>شهرک</t>
+  </si>
+  <si>
+    <t>معاملات</t>
   </si>
 </sst>
 </file>
@@ -444,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +463,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -474,7 +471,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -482,7 +479,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -490,7 +487,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -498,7 +495,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -506,7 +503,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -514,7 +511,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -522,7 +519,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -530,10 +527,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -557,7 +554,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,15 +570,15 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,36 +586,36 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -626,7 +623,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -642,7 +639,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -658,7 +655,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -666,18 +663,18 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,15 +682,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
